--- a/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Storage\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Github\Singlemachine\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA16A4-EE82-4DAC-A6B7-2C6778E2E170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AEFBE2-03B9-4DFD-AC7C-ED699D7D03CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5359,8 +5359,8 @@
   <dimension ref="A1:R508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L493" sqref="L491:L493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>246</v>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>246</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>147</v>
@@ -5750,7 +5750,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>147</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>147</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>147</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>147</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>147</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>147</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>147</v>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>147</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>147</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>147</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>147</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>147</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>147</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>147</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>147</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>147</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>942</v>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>942</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>942</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>249</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>249</v>
@@ -7484,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>966</v>
@@ -7535,7 +7535,7 @@
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>966</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>966</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>966</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>966</v>
@@ -13043,7 +13043,7 @@
         <v>4</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K150" s="3" t="s">
         <v>147</v>
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K151" s="3" t="s">
         <v>246</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K152" s="3" t="s">
         <v>147</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K154" s="3" t="s">
         <v>147</v>
@@ -13298,7 +13298,7 @@
         <v>5</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>249</v>
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" s="3">
         <v>23</v>
@@ -15919,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K209" s="3" t="s">
         <v>153</v>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K210" s="3" t="s">
         <v>153</v>
@@ -16009,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K211" s="3" t="s">
         <v>153</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K212" s="3" t="s">
         <v>153</v>
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K275" s="3" t="s">
         <v>269</v>
@@ -18934,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K276" s="3" t="s">
         <v>269</v>
@@ -18979,7 +18979,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K277" s="3" t="s">
         <v>269</v>
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K278" s="3" t="s">
         <v>269</v>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K279" s="3" t="s">
         <v>269</v>
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K280" s="3" t="s">
         <v>147</v>
@@ -19159,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K281" s="3" t="s">
         <v>147</v>
@@ -19294,7 +19294,7 @@
         <v>11</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K284" s="3" t="s">
         <v>269</v>
@@ -19339,7 +19339,7 @@
         <v>11</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K285" s="3" t="s">
         <v>269</v>
@@ -19384,7 +19384,7 @@
         <v>11</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K286" s="3" t="s">
         <v>269</v>
@@ -19429,7 +19429,7 @@
         <v>11</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K287" s="3" t="s">
         <v>269</v>
@@ -19474,7 +19474,7 @@
         <v>11</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K288" s="3" t="s">
         <v>269</v>
@@ -19519,7 +19519,7 @@
         <v>11</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K289" s="3" t="s">
         <v>269</v>
@@ -19564,7 +19564,7 @@
         <v>11</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K290" s="3" t="s">
         <v>269</v>
@@ -19609,7 +19609,7 @@
         <v>11</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K291" s="3" t="s">
         <v>269</v>
@@ -19654,7 +19654,7 @@
         <v>11</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K292" s="3" t="s">
         <v>269</v>
@@ -19699,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K293" s="3" t="s">
         <v>269</v>
@@ -19744,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K294" s="3" t="s">
         <v>269</v>
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K295" s="3" t="s">
         <v>269</v>
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K296" s="3" t="s">
         <v>269</v>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K297" s="3" t="s">
         <v>269</v>
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K298" s="3" t="s">
         <v>269</v>
@@ -19969,7 +19969,7 @@
         <v>11</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K299" s="3" t="s">
         <v>269</v>
@@ -20014,7 +20014,7 @@
         <v>11</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K300" s="3" t="s">
         <v>269</v>
@@ -20059,7 +20059,7 @@
         <v>11</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K301" s="3" t="s">
         <v>269</v>
@@ -20104,7 +20104,7 @@
         <v>11</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K302" s="3" t="s">
         <v>269</v>
@@ -20149,7 +20149,7 @@
         <v>11</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K303" s="3" t="s">
         <v>269</v>
@@ -20194,7 +20194,7 @@
         <v>11</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K304" s="3" t="s">
         <v>269</v>
@@ -20239,7 +20239,7 @@
         <v>11</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K305" s="3" t="s">
         <v>269</v>
@@ -20284,7 +20284,7 @@
         <v>11</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K306" s="3" t="s">
         <v>269</v>
@@ -20329,7 +20329,7 @@
         <v>11</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K307" s="3" t="s">
         <v>269</v>
@@ -20374,7 +20374,7 @@
         <v>11</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K308" s="3" t="s">
         <v>269</v>
@@ -20419,7 +20419,7 @@
         <v>11</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K309" s="3" t="s">
         <v>269</v>
@@ -20464,7 +20464,7 @@
         <v>11</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K310" s="3" t="s">
         <v>269</v>
@@ -20509,7 +20509,7 @@
         <v>11</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K311" s="3" t="s">
         <v>269</v>
@@ -20554,7 +20554,7 @@
         <v>11</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K312" s="3" t="s">
         <v>269</v>
@@ -20599,7 +20599,7 @@
         <v>11</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K313" s="3" t="s">
         <v>269</v>
@@ -20644,7 +20644,7 @@
         <v>11</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K314" s="3" t="s">
         <v>269</v>
@@ -20689,7 +20689,7 @@
         <v>11</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K315" s="3" t="s">
         <v>269</v>
@@ -20734,7 +20734,7 @@
         <v>11</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K316" s="3" t="s">
         <v>269</v>
@@ -20779,7 +20779,7 @@
         <v>11</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K317" s="3" t="s">
         <v>269</v>
@@ -20824,7 +20824,7 @@
         <v>11</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K318" s="3" t="s">
         <v>269</v>
@@ -20869,7 +20869,7 @@
         <v>11</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K319" s="3" t="s">
         <v>269</v>
@@ -20914,7 +20914,7 @@
         <v>11</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K320" s="3" t="s">
         <v>269</v>
@@ -20959,7 +20959,7 @@
         <v>11</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K321" s="3" t="s">
         <v>269</v>
@@ -21004,7 +21004,7 @@
         <v>11</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K322" s="3" t="s">
         <v>269</v>
@@ -21048,8 +21048,8 @@
       <c r="I323" s="2">
         <v>0</v>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>245</v>
+      <c r="J323" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="K323" s="2" t="s">
         <v>269</v>
@@ -22349,7 +22349,7 @@
         <v>0</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K352" s="3" t="s">
         <v>246</v>
@@ -22394,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K353" s="3" t="s">
         <v>246</v>
@@ -22439,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>246</v>
@@ -22484,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>245</v>
+        <v>987</v>
       </c>
       <c r="K355" s="3" t="s">
         <v>246</v>
@@ -29294,10 +29294,10 @@
         <v>1</v>
       </c>
       <c r="E507" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F507" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G507" s="3">
         <v>1</v>

--- a/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HermiduPlessis\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Github\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BFF2AB-C1D5-4F66-B508-114592AF28AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56127ED9-922F-4DC7-A0BB-257E31D9BDC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5402,9 +5402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
   <dimension ref="A1:V513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L479" sqref="L478:L479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30524,7 +30524,7 @@
         <v>131</v>
       </c>
       <c r="M488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N488">
         <v>2</v>
@@ -30572,7 +30572,7 @@
         <v>131</v>
       </c>
       <c r="M489">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N489">
         <v>2</v>
@@ -31765,8 +31765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F9557-B945-4C2D-A684-C3857C4B2C7C}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31789,7 +31789,7 @@
         <v>981</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>963</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -31803,7 +31803,7 @@
         <v>981</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>939</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -31817,7 +31817,7 @@
         <v>981</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -31831,7 +31831,7 @@
         <v>981</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>269</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -31845,7 +31845,7 @@
         <v>981</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>252</v>
+        <v>939</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -31859,7 +31859,7 @@
         <v>981</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -31873,7 +31873,7 @@
         <v>981</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -31887,7 +31887,7 @@
         <v>981</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -39571,7 +39571,7 @@
   <dimension ref="A1:F558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C590" sqref="C590:C591"/>
+      <selection activeCell="K215" sqref="J215:K280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39657,7 +39657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f>IF(Sheet1!A4="","",Sheet1!A4)</f>
         <v>3</v>
@@ -39726,7 +39726,7 @@
         <v>General Settings</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f>IF(Sheet1!A7="","",Sheet1!A7)</f>
         <v>6</v>
@@ -39751,7 +39751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f>IF(Sheet1!A8="","",Sheet1!A8)</f>
         <v>7</v>
@@ -39776,7 +39776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f>IF(Sheet1!A9="","",Sheet1!A9)</f>
         <v>8</v>
@@ -39801,7 +39801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f>IF(Sheet1!A10="","",Sheet1!A10)</f>
         <v>9</v>
@@ -39826,7 +39826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f>IF(Sheet1!A11="","",Sheet1!A11)</f>
         <v>10</v>
@@ -39851,7 +39851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f>IF(Sheet1!A12="","",Sheet1!A12)</f>
         <v>11</v>
@@ -39876,7 +39876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f>IF(Sheet1!A13="","",Sheet1!A13)</f>
         <v>12</v>
@@ -39901,7 +39901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f>IF(Sheet1!A14="","",Sheet1!A14)</f>
         <v>13</v>
@@ -39926,7 +39926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f>IF(Sheet1!A15="","",Sheet1!A15)</f>
         <v>14</v>
@@ -39951,7 +39951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f>IF(Sheet1!A16="","",Sheet1!A16)</f>
         <v>15</v>
@@ -39976,7 +39976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f>IF(Sheet1!A17="","",Sheet1!A17)</f>
         <v>16</v>
@@ -40001,7 +40001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f>IF(Sheet1!A18="","",Sheet1!A18)</f>
         <v>17</v>
@@ -40026,7 +40026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f>IF(Sheet1!A19="","",Sheet1!A19)</f>
         <v>18</v>
@@ -40051,7 +40051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f>IF(Sheet1!A20="","",Sheet1!A20)</f>
         <v>19</v>
@@ -40076,7 +40076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f>IF(Sheet1!A21="","",Sheet1!A21)</f>
         <v>20</v>
@@ -40101,7 +40101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f>IF(Sheet1!A22="","",Sheet1!A22)</f>
         <v>21</v>
@@ -40226,7 +40226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f>IF(Sheet1!A27="","",Sheet1!A27)</f>
         <v>26</v>
@@ -43067,7 +43067,7 @@
         <v>General Settings</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
         <f>IF(Sheet1!A150="","",Sheet1!A150)</f>
         <v>149</v>
@@ -43117,7 +43117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <f>IF(Sheet1!A152="","",Sheet1!A152)</f>
         <v>151</v>
@@ -43167,7 +43167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <f>IF(Sheet1!A154="","",Sheet1!A154)</f>
         <v>153</v>
@@ -43239,7 +43239,7 @@
         <v>Module Settings</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16">
         <f>IF(Sheet1!A157="","",Sheet1!A157)</f>
         <v>156</v>
@@ -43264,7 +43264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="16">
         <f>IF(Sheet1!A158="","",Sheet1!A158)</f>
         <v>157</v>
@@ -43289,7 +43289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16">
         <f>IF(Sheet1!A159="","",Sheet1!A159)</f>
         <v>158</v>
@@ -44556,7 +44556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="16">
         <f>IF(Sheet1!A214="","",Sheet1!A214)</f>
         <v>213</v>
@@ -44581,7 +44581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="16">
         <f>IF(Sheet1!A215="","",Sheet1!A215)</f>
         <v>214</v>
@@ -46134,7 +46134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="16">
         <f>IF(Sheet1!A280="","",Sheet1!A280)</f>
         <v>279</v>
@@ -46159,7 +46159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="16">
         <f>IF(Sheet1!A281="","",Sheet1!A281)</f>
         <v>280</v>
@@ -50932,7 +50932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="16">
         <f>IF(Sheet1!A488="","",Sheet1!A488)</f>
         <v>487</v>
@@ -51409,7 +51409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="16">
         <f>IF(Sheet1!A509="","",Sheet1!A509)</f>
         <v>508</v>
@@ -52165,12 +52165,12 @@
   <autoFilter ref="D1:E558" xr:uid="{616EB912-1E73-4DBD-BA8F-813AD11B74E7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Display"/>
+        <filter val="System"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="General Settings"/>
+        <filter val="Vehicle Detail"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HermiduPlessis\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Github\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56127ED9-922F-4DC7-A0BB-257E31D9BDC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACF7198-A33A-43B0-B97D-ED79721006C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="1607">
   <si>
     <t>Name</t>
   </si>
@@ -4859,6 +4859,9 @@
   </si>
   <si>
     <t>Backlight Control</t>
+  </si>
+  <si>
+    <t>GPS Capable</t>
   </si>
 </sst>
 </file>
@@ -5402,9 +5405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
   <dimension ref="A1:V513"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L479" sqref="L478:L479"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L486" sqref="L486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9005,7 +9008,7 @@
         <v>1063</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>894</v>
+        <v>1606</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="1"/>
@@ -30305,16 +30308,16 @@
         <v>955</v>
       </c>
       <c r="D484" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E484" s="3">
         <v>5</v>
       </c>
       <c r="F484" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G484" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H484" s="3">
         <v>2</v>
@@ -31765,7 +31768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F9557-B945-4C2D-A684-C3857C4B2C7C}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
@@ -41163,7 +41166,7 @@
       </c>
       <c r="C65" s="16" t="str">
         <f>IF(Sheet1!C65="","",Sheet1!C65)</f>
-        <v>Reserved 01</v>
+        <v>GPS Capable</v>
       </c>
       <c r="D65" s="16" t="str">
         <f>IF(Sheet1!J65="","",Sheet1!J65)</f>

--- a/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/BHUParametersFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HermiduPlessis\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Github\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189784F0-BD8E-4B48-A77D-F42A5EAE31C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C75B2A-1E48-486E-93FD-A5D6E6687E93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
@@ -5483,8 +5483,8 @@
   <dimension ref="A1:V518"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N177" sqref="N177"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L271" sqref="L271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32579,8 +32579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F9557-B945-4C2D-A684-C3857C4B2C7C}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32678,7 +32678,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>947</v>
+        <v>1603</v>
       </c>
       <c r="B8" s="11">
         <v>7</v>
@@ -32932,7 +32932,7 @@
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>947</v>
+        <v>1603</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>961</v>
@@ -32941,8 +32941,8 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="D33" s="11" t="s">
-        <v>947</v>
+      <c r="D33" s="29" t="s">
+        <v>1603</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>862</v>
@@ -32951,8 +32951,8 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>947</v>
+      <c r="D34" s="29" t="s">
+        <v>1603</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>960</v>
@@ -32961,8 +32961,8 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>947</v>
+      <c r="D35" s="29" t="s">
+        <v>1603</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>956</v>
@@ -32971,8 +32971,8 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="D36" s="11" t="s">
-        <v>947</v>
+      <c r="D36" s="29" t="s">
+        <v>1603</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>863</v>
